--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -56,6 +56,36 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>MENGOA PADILLA</t>
+  </si>
+  <si>
+    <t>RAI PAOLO</t>
+  </si>
+  <si>
+    <t>HUAMANI MEGO</t>
+  </si>
+  <si>
+    <t>EDWIN</t>
+  </si>
+  <si>
+    <t>DONAYRE MARTINEZ</t>
+  </si>
+  <si>
+    <t>JULIO FRANCISCO</t>
+  </si>
+  <si>
+    <t>OBESO VALVERDE</t>
+  </si>
+  <si>
+    <t>ELIAS</t>
+  </si>
+  <si>
+    <t>MORENO CHIPANA</t>
+  </si>
+  <si>
+    <t>JHON</t>
   </si>
 </sst>
 </file>
@@ -127,7 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -136,13 +166,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -181,6 +215,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -229,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +301,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,34 +510,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="6">
         <v>42437</v>
       </c>
       <c r="D1" s="6">
         <v>42439</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="6">
+        <v>42444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -510,9 +552,12 @@
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -522,9 +567,12 @@
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -534,9 +582,10 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="7"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -546,9 +595,12 @@
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -558,7 +610,73 @@
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:B6">
@@ -566,17 +684,5 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D6</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -49,12 +49,6 @@
     <t>MAYRA</t>
   </si>
   <si>
-    <t xml:space="preserve">CHUMPITAZ </t>
-  </si>
-  <si>
-    <t>JUAN</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -86,6 +80,33 @@
   </si>
   <si>
     <t>JHON</t>
+  </si>
+  <si>
+    <t>Nro.</t>
+  </si>
+  <si>
+    <t>DIAZ FABIAN</t>
+  </si>
+  <si>
+    <t>JUAN PABLO</t>
+  </si>
+  <si>
+    <t>HINOSTROSA MESA</t>
+  </si>
+  <si>
+    <t>EDUARDO RUBEN</t>
+  </si>
+  <si>
+    <t>CHUMPITAZ HUARCAYA</t>
+  </si>
+  <si>
+    <t>JUAN GABRIEL</t>
+  </si>
+  <si>
+    <t>RAMOS PIO</t>
+  </si>
+  <si>
+    <t>JUNIOR ISMAEL</t>
   </si>
 </sst>
 </file>
@@ -157,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,6 +198,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -510,177 +534,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6">
+      <c r="D1" s="6">
         <v>42437</v>
       </c>
-      <c r="D1" s="6">
+      <c r="E1" s="6">
         <v>42439</v>
       </c>
-      <c r="E1" s="6">
+      <c r="F1" s="6">
         <v>42444</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="2"/>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B6">
-    <sortCondition ref="A2"/>
+  <sortState ref="B2:E11">
+    <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -537,7 +537,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +697,9 @@
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
